--- a/2019/league/alpha/data/standings/2019_week_2_standings.xlsx
+++ b/2019/league/alpha/data/standings/2019_week_2_standings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="130">
   <si>
     <t>Rank</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Levine</t>
+  </si>
+  <si>
+    <t>Theresa</t>
   </si>
   <si>
     <t>O'Leary</t>
@@ -765,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1431,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1461,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>-0.1142857142857146</v>
+        <v>0.2625</v>
       </c>
       <c r="O10" s="4">
-        <v>0.675</v>
+        <v>0.06666666666666661</v>
       </c>
       <c r="P10" s="4">
         <v>0.3</v>
@@ -1488,6 +1491,77 @@
         <v>0</v>
       </c>
       <c r="W10" s="4">
+        <v>4.729166666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>-0.1142857142857146</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.675</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
         <v>3.610714285714285</v>
       </c>
     </row>
@@ -1509,15 +1583,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
         <v>-3</v>
@@ -1533,7 +1607,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>0.25</v>
@@ -1541,7 +1615,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1549,7 +1623,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
@@ -1565,7 +1639,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3">
         <v>0.1</v>
@@ -1581,7 +1655,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3">
         <v>-0.25</v>
@@ -1589,7 +1663,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
         <v>0.1</v>
@@ -1597,7 +1671,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>0.1</v>
@@ -1605,7 +1679,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3">
         <v>0.1</v>
@@ -1613,7 +1687,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3">
         <v>0.5</v>
@@ -1621,7 +1695,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3">
         <v>0.75</v>
@@ -1629,7 +1703,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -1637,7 +1711,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3">
         <v>0.4</v>
@@ -1645,7 +1719,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3">
         <v>0.75</v>
@@ -1653,7 +1727,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1661,7 +1735,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3">
         <v>0.5</v>
@@ -1669,7 +1743,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3">
         <v>0.25</v>
@@ -1694,31 +1768,31 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
@@ -1742,10 +1816,10 @@
         <v>12</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>15</v>
@@ -1757,13 +1831,13 @@
         <v>17</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>21</v>
@@ -1774,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5">
         <v>9</v>
@@ -1851,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5">
         <v>8</v>
@@ -1928,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -2005,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
@@ -2082,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
@@ -2159,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -2236,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -2313,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -2390,10 +2464,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5">
         <v>6</v>
@@ -2467,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -2544,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -2621,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -2698,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5">
         <v>7</v>
@@ -2775,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
@@ -2852,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
@@ -2929,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5">
         <v>5</v>
@@ -3006,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -3083,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
@@ -3160,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" s="5">
         <v>4</v>
@@ -3237,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5">
         <v>8</v>
@@ -3314,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="5">
         <v>8</v>
@@ -3391,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="5">
         <v>8</v>
@@ -3468,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="5">
         <v>4</v>
@@ -3545,10 +3619,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="5">
         <v>4</v>
@@ -3622,10 +3696,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -3699,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
@@ -3776,10 +3850,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -3853,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
@@ -3930,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="5">
         <v>4</v>
@@ -4007,10 +4081,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" s="5">
         <v>2</v>
@@ -4084,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" s="5">
         <v>3</v>
@@ -4161,10 +4235,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" s="5">
         <v>3</v>
@@ -4238,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -4315,10 +4389,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -4392,10 +4466,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -4469,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
@@ -4546,10 +4620,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="5">
         <v>2</v>
@@ -4623,10 +4697,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39" s="5">
         <v>5</v>
@@ -4700,10 +4774,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" s="5">
         <v>4</v>
@@ -4777,10 +4851,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D41" s="5">
         <v>4</v>
@@ -4854,10 +4928,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" s="5">
         <v>6</v>
@@ -4931,10 +5005,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" s="5">
         <v>8</v>
@@ -5008,10 +5082,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="5">
         <v>6</v>
@@ -5085,10 +5159,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="5">
         <v>7</v>
@@ -5162,10 +5236,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D46" s="5">
         <v>7</v>
@@ -5239,10 +5313,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" s="5">
         <v>3</v>
@@ -5316,10 +5390,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" s="5">
         <v>7</v>
@@ -5393,10 +5467,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D49" s="5">
         <v>5</v>
@@ -5470,10 +5544,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="5">
         <v>5</v>
@@ -5547,10 +5621,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D51" s="5">
         <v>4</v>
@@ -5624,10 +5698,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
@@ -5701,10 +5775,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D53" s="5">
         <v>6</v>
@@ -5778,10 +5852,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
@@ -5855,10 +5929,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
@@ -5932,10 +6006,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D56" s="5">
         <v>5</v>
@@ -6009,10 +6083,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D57" s="5">
         <v>6</v>
@@ -6086,10 +6160,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" s="5">
         <v>5</v>
@@ -6163,10 +6237,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" s="5">
         <v>5</v>
@@ -6240,10 +6314,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" s="5">
         <v>5</v>
@@ -6317,10 +6391,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" s="5">
         <v>4</v>
@@ -6394,10 +6468,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D62" s="5">
         <v>4</v>
@@ -6471,10 +6545,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D63" s="5">
         <v>3</v>
@@ -6569,16 +6643,16 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -6614,10 +6688,10 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>15</v>
@@ -6649,13 +6723,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -6726,13 +6800,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -6806,10 +6880,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -6880,13 +6954,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -6957,13 +7031,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -7034,13 +7108,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -7111,13 +7185,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -7188,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -7265,13 +7339,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -7342,13 +7416,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -7419,13 +7493,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -7496,13 +7570,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -7573,13 +7647,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -7650,13 +7724,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -7730,10 +7804,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -7807,10 +7881,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -7881,13 +7955,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -7958,13 +8032,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -8038,10 +8112,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -8112,13 +8186,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -8189,13 +8263,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -8266,13 +8340,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -8343,13 +8417,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -8423,10 +8497,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -8500,10 +8574,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -8574,13 +8648,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -8654,10 +8728,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -8728,13 +8802,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -8808,7 +8882,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>3</v>
@@ -8882,13 +8956,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -8959,13 +9033,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -9036,13 +9110,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -9113,13 +9187,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -9190,13 +9264,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -9267,13 +9341,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -9344,13 +9418,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -9421,13 +9495,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -9498,13 +9572,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -9575,13 +9649,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -9652,13 +9726,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -9729,13 +9803,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -9806,13 +9880,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -9883,13 +9957,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -9960,13 +10034,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -10037,13 +10111,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -10114,13 +10188,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -10191,13 +10265,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -10268,13 +10342,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -10345,13 +10419,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -10422,13 +10496,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -10499,13 +10573,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -10576,13 +10650,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -10653,13 +10727,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -10730,13 +10804,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -10807,13 +10881,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -10884,13 +10958,13 @@
         <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -10961,13 +11035,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -11038,13 +11112,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="4">
         <v>-3</v>
@@ -11115,13 +11189,13 @@
         <v>1</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E60" s="4">
         <v>-3</v>
@@ -11192,13 +11266,13 @@
         <v>2</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -11269,10 +11343,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
@@ -11346,13 +11420,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -11450,10 +11524,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -11524,13 +11598,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -11601,13 +11675,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -11678,13 +11752,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -11755,13 +11829,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -11832,13 +11906,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -11909,13 +11983,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -11986,13 +12060,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -12063,13 +12137,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -12140,13 +12214,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -12217,13 +12291,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -12294,13 +12368,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -12371,13 +12445,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -12448,13 +12522,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -12525,13 +12599,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -12602,13 +12676,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -12679,13 +12753,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -12756,13 +12830,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -12833,13 +12907,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -12910,13 +12984,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -12987,13 +13061,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -13064,13 +13138,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -13141,13 +13215,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -13218,13 +13292,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -13295,13 +13369,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -13372,13 +13446,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -13449,13 +13523,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -13526,13 +13600,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -13603,13 +13677,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -13680,13 +13754,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="4">
         <v>-3</v>
@@ -13757,13 +13831,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E31" s="4">
         <v>-3</v>
@@ -13834,10 +13908,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
@@ -13911,13 +13985,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -14015,10 +14089,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -14092,10 +14166,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -14166,13 +14240,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -14243,13 +14317,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -14320,13 +14394,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -14397,13 +14471,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -14477,10 +14551,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -14554,10 +14628,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -14628,13 +14702,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -14708,10 +14782,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -14782,13 +14856,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -14859,13 +14933,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -14939,10 +15013,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -15016,10 +15090,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -15090,13 +15164,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -15170,10 +15244,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -15244,13 +15318,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -15324,7 +15398,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
@@ -15398,13 +15472,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -15475,13 +15549,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -15552,13 +15626,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -15629,13 +15703,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -15706,13 +15780,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -15783,13 +15857,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -15860,13 +15934,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -15937,13 +16011,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -16014,13 +16088,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -16091,13 +16165,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -16168,13 +16242,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -16245,13 +16319,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -16322,13 +16396,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
